--- a/trunk/TesisIsaacReyes/resources/MATRICULA.xlsx
+++ b/trunk/TesisIsaacReyes/resources/MATRICULA.xlsx
@@ -20261,7 +20261,7 @@
       <c r="L55" s="194"/>
       <c r="M55" s="152"/>
     </row>
-    <row r="56" spans="1:13" ht="30.75" thickBot="1">
+    <row r="56" spans="1:13" ht="15.75" thickBot="1">
       <c r="A56" s="228">
         <v>1</v>
       </c>
